--- a/Test Data Driven/AI-Generated/TestCase-020.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-020.xlsx
@@ -450,7 +450,7 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="114" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="74" customWidth="1" min="5" max="5"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
     <col width="81" customWidth="1" min="6" max="6"/>
     <col width="81" customWidth="1" min="7" max="7"/>
     <col width="9" customWidth="1" min="8" max="8"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/addItemsToCartFromAppleCategory-test-data</t>
+          <t>Data Files/AI-Generated/Common/addItemsFromAppleCategoryWithDiscounts-test-data</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
